--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56519.45564259785</v>
+        <v>11138534.40813218</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56519.45564259785</v>
+        <v>11138534.40813218</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168424.4479921066</v>
+        <v>18861164.23894602</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168424.4479921066</v>
+        <v>18861164.23894602</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1492422047.446532</v>
+        <v>37268668.7776781</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17380.13084971433</v>
+        <v>845951.113127416</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33477.1623709206</v>
+        <v>1505184.864871881</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49516.70642877315</v>
+        <v>2164418.616616345</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65152.53722458104</v>
+        <v>2823458.44550884</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80788.36802038895</v>
+        <v>3482498.274401337</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96385.14692226755</v>
+        <v>4236544.44074939</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>111402.556179882</v>
+        <v>5305797.877179324</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>126044.5165486075</v>
+        <v>6300336.984720368</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141111.6693871739</v>
+        <v>7064537.928275345</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>156435.800003518</v>
+        <v>7879877.449608093</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>171759.9306198622</v>
+        <v>8695216.970940845</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>187084.0612362063</v>
+        <v>9510556.492273593</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>202408.1918525505</v>
+        <v>10325896.01360634</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>219011.3551692621</v>
+        <v>10861767.37029273</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>235332.3431285094</v>
+        <v>11170868.92225577</v>
       </c>
     </row>
   </sheetData>
